--- a/bin/config/xlsx/operator/Operator.xlsx
+++ b/bin/config/xlsx/operator/Operator.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -50,13 +50,16 @@
     <t>//scene_operator</t>
   </si>
   <si>
-    <t xml:space="preserve">    EnterSceneC2S</t>
+    <t>EnterSceneC2S</t>
   </si>
   <si>
     <t>//bag_operator</t>
   </si>
   <si>
-    <t xml:space="preserve">    UseItem</t>
+    <t>UseItem</t>
+  </si>
+  <si>
+    <t>RewardItem</t>
   </si>
   <si>
     <t>//ability_operator</t>
@@ -1012,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1074,6 +1077,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/bin/config/xlsx/operator/Operator.xlsx
+++ b/bin/config/xlsx/operator/Operator.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -59,7 +59,10 @@
     <t>UseItem</t>
   </si>
   <si>
-    <t>RewardItem</t>
+    <t>ActivityRewardItem</t>
+  </si>
+  <si>
+    <t>MissionRewardItem</t>
   </si>
   <si>
     <t>//ability_operator</t>
@@ -1015,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1082,6 +1085,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/bin/config/xlsx/operator/Operator.xlsx
+++ b/bin/config/xlsx/operator/Operator.xlsx
@@ -47,13 +47,13 @@
     <t>design</t>
   </si>
   <si>
-    <t>//scene_operator</t>
+    <t>//scene</t>
   </si>
   <si>
     <t>EnterSceneC2S</t>
   </si>
   <si>
-    <t>//bag_operator</t>
+    <t>//bag</t>
   </si>
   <si>
     <t>UseItem</t>
@@ -65,7 +65,7 @@
     <t>MissionRewardItem</t>
   </si>
   <si>
-    <t>//ability_operator</t>
+    <t>//ability</t>
   </si>
   <si>
     <t>UseAbility</t>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/operator/Operator.xlsx
+++ b/bin/config/xlsx/operator/Operator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24610" windowHeight="11890"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -1018,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A7" sqref="$A7:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1050,43 +1050,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
